--- a/src/test/resources/Run_Manager_EJAR3.xlsx
+++ b/src/test/resources/Run_Manager_EJAR3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntellijWorkspace\NHC\EJAR\NHC_Internal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9659429-1D23-47B6-8319-BFEB740E6BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044C7879-4F48-4880-9EC2-8577205DDC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4740" yWindow="4740" windowWidth="10140" windowHeight="4740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteDetails" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t xml:space="preserve">Add Lessor Representative </t>
   </si>
@@ -67,9 +67,6 @@
     <t>Verify lessor has been updated</t>
   </si>
   <si>
-    <t>VerifyUpdateCurrentLessor</t>
-  </si>
-  <si>
     <t>P_Key</t>
   </si>
   <si>
@@ -187,12 +184,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>ChangeLessor~Test</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>OwnerShipReference</t>
   </si>
   <si>
@@ -205,14 +196,74 @@
     <t>20230101</t>
   </si>
   <si>
-    <t>Random value</t>
+    <t>Delete Lessor Representative</t>
+  </si>
+  <si>
+    <t>Update Lessor Representative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Lessor Representative </t>
+  </si>
+  <si>
+    <t>Delete Lessor</t>
+  </si>
+  <si>
+    <t>Update Lessor</t>
+  </si>
+  <si>
+    <t>Add Lessor</t>
+  </si>
+  <si>
+    <t>Change Lessor</t>
+  </si>
+  <si>
+    <t>TestAuto9090</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">ChangeLessor~Add Lessor Representative </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChangeLessor~Change Lessor Representative </t>
+  </si>
+  <si>
+    <t>ChangeLessor~Delete Lessor Representative</t>
+  </si>
+  <si>
+    <t>ChangeLessor~Update Lessor Representative</t>
+  </si>
+  <si>
+    <t>VerifyUpdateLessor</t>
+  </si>
+  <si>
+    <t>14000101</t>
+  </si>
+  <si>
+    <t>AutoFatimah</t>
+  </si>
+  <si>
+    <t>1111111100</t>
+  </si>
+  <si>
+    <t>1000100014</t>
+  </si>
+  <si>
+    <t>1000100011</t>
+  </si>
+  <si>
+    <t>HJNB89098</t>
+  </si>
+  <si>
+    <t>Module 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +299,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -366,7 +423,27 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -653,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,72 +753,72 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
@@ -752,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
@@ -761,10 +838,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>3</v>
@@ -773,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="K3" s="3">
         <v>1</v>
@@ -787,10 +864,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -799,10 +876,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>3</v>
@@ -825,10 +902,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -837,10 +914,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>3</v>
@@ -866,19 +943,19 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>3</v>
@@ -887,18 +964,53 @@
         <v>4</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="K6" s="3">
         <v>1</v>
       </c>
       <c r="L6" s="5">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2 E1:F1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -908,13 +1020,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47845F91-04B5-4101-87D8-0C591EFC2BB6}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -931,150 +1043,191 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="H3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="H4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="B5" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="H5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="M5" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{CEEEA561-0A40-4963-98B0-954BDE256BC8}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{45CA6873-3972-4231-AB59-2B64097D4FDF}"/>

--- a/src/test/resources/Run_Manager_EJAR3.xlsx
+++ b/src/test/resources/Run_Manager_EJAR3.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntellijWorkspace\NHC\EJAR\NHC_Internal\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Automation_NHC_Projects\EJAR\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9659429-1D23-47B6-8319-BFEB740E6BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C63B5B8-3CFA-46D1-AA85-CB727E855CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteDetails" sheetId="1" r:id="rId1"/>
     <sheet name="ChangeLessor" sheetId="2" r:id="rId2"/>
+    <sheet name="ChangeLessorRep" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,186 +27,252 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="82">
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>SmokeSuite</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Lessor Representative </t>
+  </si>
+  <si>
+    <t>VerifyUpdateLessorRepresentative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Lessor Representative </t>
+  </si>
+  <si>
+    <t>Verify lessor has been updated</t>
+  </si>
+  <si>
+    <t>P_Key</t>
+  </si>
+  <si>
+    <t>Business Feature</t>
+  </si>
+  <si>
+    <t>TestName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>TestMethodName</t>
+  </si>
+  <si>
+    <t>TestDataSource</t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>TC_TYPE</t>
+  </si>
+  <si>
+    <t>SuiteType</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>Invoke</t>
+  </si>
+  <si>
+    <t>RunOrder</t>
+  </si>
+  <si>
+    <t>Module 1</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Change Lessor Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Lessor </t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>OTP</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ContractNumber</t>
+  </si>
+  <si>
+    <t>https://test-ejar3.housingapps.sa/</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>bo_manager_a3</t>
+  </si>
+  <si>
+    <t>EJARPasswordA123</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ChangeLessor~Test</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>National_Id</t>
+  </si>
+  <si>
+    <t>Date_Of_Birth</t>
+  </si>
+  <si>
+    <t>1000100015</t>
+  </si>
+  <si>
+    <t>Phone_Number</t>
+  </si>
+  <si>
+    <t>550055111</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>abc@g.com</t>
+  </si>
+  <si>
+    <t>VerifyUpdateLessor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Lessor </t>
+  </si>
+  <si>
+    <t>Verify lessor approved the change</t>
+  </si>
+  <si>
+    <t>VerifyApprovedLessor</t>
+  </si>
+  <si>
+    <t>CheckLessorIsUpdated</t>
+  </si>
+  <si>
+    <t>Check lessor is updated</t>
+  </si>
+  <si>
+    <t>DN-Date</t>
+  </si>
+  <si>
+    <t>New-DN</t>
+  </si>
+  <si>
+    <t>14000101</t>
+  </si>
+  <si>
+    <t>20230101</t>
+  </si>
+  <si>
+    <t>12002</t>
+  </si>
+  <si>
+    <t>NewLessor</t>
+  </si>
+  <si>
+    <t>ChangeLessor~NewLessor</t>
+  </si>
+  <si>
+    <t>OwnerShipReference</t>
+  </si>
+  <si>
+    <t>NewLessorRep</t>
+  </si>
+  <si>
+    <t>1-010111</t>
+  </si>
+  <si>
+    <t>ChangeLessorRep~Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approve Lessor Representative </t>
+  </si>
+  <si>
+    <t>Approve Change Lessor</t>
+  </si>
+  <si>
+    <t>Check lessor Is Updated</t>
+  </si>
+  <si>
+    <t>Check Lessor Representative Is Updated</t>
+  </si>
+  <si>
+    <t>Verify lessor representative has been updated</t>
+  </si>
+  <si>
+    <t>Verify lessor representative approved the change</t>
+  </si>
+  <si>
+    <t>Check lessor representative is updated</t>
+  </si>
+  <si>
+    <t>VerifyLessorRepresentativeApproveTheUpdate</t>
+  </si>
+  <si>
+    <t>CheckLessorRepresentativeIsUpdated</t>
+  </si>
+  <si>
+    <t>ChangeLessorRep~NewLessorRep</t>
+  </si>
+  <si>
+    <t>TC_01_WEB Verify Current Lessor Is Changed</t>
+  </si>
+  <si>
+    <t>TC_02_WEB Verify Current Lessor Approve The Change</t>
+  </si>
+  <si>
+    <t>TC_03_WEB Check Current Lessor Is Updated</t>
+  </si>
+  <si>
+    <t>TC_04_WEB Verify Update The Lessor Representative</t>
+  </si>
+  <si>
+    <t>TC_05_WEB Verify The Lessor Representative Approve The Update</t>
+  </si>
+  <si>
+    <t>TC_06_WEB Check The Lessor Representative Is Updated</t>
+  </si>
+  <si>
+    <t>12003</t>
+  </si>
+  <si>
+    <t>1000100012</t>
+  </si>
   <si>
     <t xml:space="preserve">Add Lessor Representative </t>
   </si>
   <si>
-    <t>Add Lessor Representative From OwnerShip Document</t>
-  </si>
-  <si>
-    <t>VerifyAddLessorRepresentative</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>SmokeSuite</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Lessor Representative </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change Lessor Representative From OwnerShip Document </t>
-  </si>
-  <si>
-    <t>VerifyUpdateLessorRepresentative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change Lessor Representative </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Lessor Representative From OwnerShip Document </t>
-  </si>
-  <si>
-    <t>VerifyDeleteLessorRepresentative</t>
-  </si>
-  <si>
-    <t>Verify lessor has been updated</t>
-  </si>
-  <si>
-    <t>VerifyUpdateCurrentLessor</t>
-  </si>
-  <si>
-    <t>P_Key</t>
-  </si>
-  <si>
-    <t>Business Feature</t>
-  </si>
-  <si>
-    <t>TestName</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>TestMethodName</t>
-  </si>
-  <si>
-    <t>TestDataSource</t>
-  </si>
-  <si>
-    <t>TC_ID</t>
-  </si>
-  <si>
-    <t>TC_TYPE</t>
-  </si>
-  <si>
-    <t>SuiteType</t>
-  </si>
-  <si>
-    <t>Execute</t>
-  </si>
-  <si>
-    <t>Invoke</t>
-  </si>
-  <si>
-    <t>RunOrder</t>
-  </si>
-  <si>
-    <t>Module 1</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>Change Lessor Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change Lessor </t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>ID_Num</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>OTP</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>NewLessorID</t>
-  </si>
-  <si>
-    <t>NewLessorDOB</t>
-  </si>
-  <si>
-    <t>ContractNumber</t>
-  </si>
-  <si>
-    <t>https://test-ejar3.housingapps.sa/</t>
-  </si>
-  <si>
-    <t>1557577496</t>
-  </si>
-  <si>
-    <t>1400-01-01</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>bo_manager_a3</t>
-  </si>
-  <si>
-    <t>EJARPasswordA123</t>
-  </si>
-  <si>
-    <t>1-0002</t>
-  </si>
-  <si>
-    <t>1599737193</t>
-  </si>
-  <si>
-    <t>TC_1_VerifyAddLessorRepresentative</t>
-  </si>
-  <si>
-    <t>TC_2_VerifyUpdateLessorRepresentative</t>
-  </si>
-  <si>
-    <t>TC_3_VerifyDeleteLessorRepresentative</t>
-  </si>
-  <si>
-    <t>TC_4_VerifyUpdateCurrentLessor</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>ChangeLessor~Test</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>OwnerShipReference</t>
-  </si>
-  <si>
-    <t>DN_IssueDate</t>
-  </si>
-  <si>
-    <t>New_DN</t>
-  </si>
-  <si>
-    <t>20230101</t>
-  </si>
-  <si>
-    <t>Random value</t>
+    <t>Add lessor representative With Owner And Representative</t>
+  </si>
+  <si>
+    <t>TC_06_WEB Verify The Lessor Representativae</t>
   </si>
 </sst>
 </file>
@@ -253,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,12 +363,6 @@
         <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -331,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -359,8 +420,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -653,20 +712,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
@@ -676,104 +736,104 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="K3" s="3">
         <v>1</v>
@@ -784,34 +844,34 @@
     </row>
     <row r="4" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="K4" s="3">
         <v>1</v>
@@ -822,34 +882,34 @@
     </row>
     <row r="5" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K5" s="3">
         <v>1</v>
@@ -860,40 +920,154 @@
     </row>
     <row r="6" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K6" s="3">
         <v>1</v>
       </c>
       <c r="L6" s="5">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -906,181 +1080,306 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47845F91-04B5-4101-87D8-0C591EFC2BB6}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="M1" s="11" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="F2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="G3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{CEEEA561-0A40-4963-98B0-954BDE256BC8}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{45CA6873-3972-4231-AB59-2B64097D4FDF}"/>
-    <hyperlink ref="B3:B4" r:id="rId3" display="https://test-ejar3.housingapps.sa/" xr:uid="{FFCEAA72-D256-4DFA-BEA1-63CC9473B3EC}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{8C2707C2-B36C-4D12-A3C8-707C41D1A431}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E49A7F-8E1E-4BFA-9E4F-7C93C1267D3F}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{72FCB7C9-1227-410A-A397-5D292B7F1CF7}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{B92F053F-7B5C-4DED-A488-05B2EC634CF3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Run_Manager_EJAR3.xlsx
+++ b/src/test/resources/Run_Manager_EJAR3.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Automation_NHC_Projects\EJAR\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\NHC_Internal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C63B5B8-3CFA-46D1-AA85-CB727E855CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDA4EE1-3261-4FE3-8E04-717214E761C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteDetails" sheetId="1" r:id="rId1"/>
-    <sheet name="ChangeLessor" sheetId="2" r:id="rId2"/>
-    <sheet name="ChangeLessorRep" sheetId="3" r:id="rId3"/>
+    <sheet name="AddLessorRep" sheetId="4" r:id="rId2"/>
+    <sheet name="ChangeLessor" sheetId="2" r:id="rId3"/>
+    <sheet name="ChangeLessorRep" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="104">
   <si>
     <t>Web</t>
   </si>
@@ -272,14 +273,80 @@
     <t>Add lessor representative With Owner And Representative</t>
   </si>
   <si>
-    <t>TC_06_WEB Verify The Lessor Representativae</t>
+    <t>Add new Lessor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add lessor representative </t>
+  </si>
+  <si>
+    <t>Add lessor representative module</t>
+  </si>
+  <si>
+    <t>TC_07_WEB Verify The Lessor Representativae</t>
+  </si>
+  <si>
+    <t>LessorRepID</t>
+  </si>
+  <si>
+    <t>LessorRepDOB</t>
+  </si>
+  <si>
+    <t>1000100014</t>
+  </si>
+  <si>
+    <t>TC_08_Verify user is able to add new lessor representative with single owner</t>
+  </si>
+  <si>
+    <t>Add lessor representative With single owner having a contract</t>
+  </si>
+  <si>
+    <t>VerifyAddLessorRepWithSingleOwnerHavingContract</t>
+  </si>
+  <si>
+    <t>Add Lessor Representative from ownership document</t>
+  </si>
+  <si>
+    <t>AddLessorRepWithASingleOwnerHavingContract</t>
+  </si>
+  <si>
+    <t>AddLessorRep~AddLessorRepWithASingleOwnerHavingContract</t>
+  </si>
+  <si>
+    <t>1-01013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approve add lessor Representative </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_08_Approve add lessor Representative </t>
+  </si>
+  <si>
+    <t>VerifyLessorRepresentativeAdded</t>
+  </si>
+  <si>
+    <t>TC_08_Check New Lessor Representative Is Updated In All Contracts</t>
+  </si>
+  <si>
+    <t>CheckNewLessorRepresentativeIsUpdatedInAllContracts</t>
+  </si>
+  <si>
+    <t>Check New Lessor Representative Is Updated In All Contracts</t>
+  </si>
+  <si>
+    <t>VerifyContractVersionIsUpdatedAfterAddingNewLessorRep</t>
+  </si>
+  <si>
+    <t>TC_08_Verify Contract Version Is Updated After Adding New Lessor Representative</t>
+  </si>
+  <si>
+    <t>Verify Contract Version Is Updated After Adding New Lessor Representative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +385,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -392,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -420,12 +499,23 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -712,20 +802,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -806,7 +896,7 @@
     </row>
     <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>22</v>
@@ -844,7 +934,7 @@
     </row>
     <row r="4" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
@@ -882,7 +972,7 @@
     </row>
     <row r="5" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
@@ -920,7 +1010,7 @@
     </row>
     <row r="6" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -958,7 +1048,7 @@
     </row>
     <row r="7" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -996,7 +1086,7 @@
     </row>
     <row r="8" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -1023,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="K8" s="3">
         <v>1</v>
@@ -1034,7 +1124,7 @@
     </row>
     <row r="9" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -1052,7 +1142,7 @@
         <v>70</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>0</v>
@@ -1061,29 +1151,434 @@
         <v>1</v>
       </c>
       <c r="J9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5">
-        <v>6</v>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2 E1:F1">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J9 J11:J14" xr:uid="{E83FD3E0-91B9-4AD1-B779-910F6B97ADFF}">
+      <formula1>"No, Yes"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47845F91-04B5-4101-87D8-0C591EFC2BB6}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A593A31F-8919-4213-9FF3-9E6D306CF732}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="C8" sqref="A7:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2C770E30-F214-4029-AB48-30FA5ADBBC77}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9DE9630D-05AF-4311-93C0-B8799324427F}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{41AEC2CF-5765-4696-9471-DB8219357E46}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47845F91-04B5-4101-87D8-0C591EFC2BB6}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1222,21 +1717,61 @@
       </c>
       <c r="M3" s="2"/>
     </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{CEEEA561-0A40-4963-98B0-954BDE256BC8}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{8C2707C2-B36C-4D12-A3C8-707C41D1A431}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{43A954B4-8B11-4F8D-92D6-562075676ED3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E49A7F-8E1E-4BFA-9E4F-7C93C1267D3F}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
